--- a/CODIGO_PIC_PRUEBA/frame.xlsx
+++ b/CODIGO_PIC_PRUEBA/frame.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nextcloud\Mis Documentos\Documentos\1 MLG\Escuela\MAESTRIA\2° Semestre\SISTEMAS PROGRAMABLES\CCS\usb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DA59BFE-FF21-4D71-99A9-417CF127DF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD8ADA6-A871-4682-AEA3-19D397F883B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32790" yWindow="6480" windowWidth="11160" windowHeight="11385" activeTab="1" xr2:uid="{6C82AA1A-E8AA-4289-9F33-1548B390E90C}"/>
+    <workbookView xWindow="20070" yWindow="1560" windowWidth="14700" windowHeight="12375" xr2:uid="{6C82AA1A-E8AA-4289-9F33-1548B390E90C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -206,15 +206,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EE1570-1689-4AF5-856C-CFF527CD08D7}">
   <dimension ref="A2:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC08FA2F-A83A-4458-A0D6-BABC9B8BEBA8}">
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -705,22 +705,22 @@
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -784,7 +784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -800,11 +800,11 @@
       <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -820,7 +820,7 @@
       <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -830,10 +830,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
